--- a/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_009.xlsx
+++ b/static/data/python/sample exams/Brunswick/Brunswick_exam_sample_009.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295003AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER:(CFR: 41.8 to 41.10) Load shedding</t>
-  </si>
-  <si>
-    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295001AK2.02) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.45) EMERGENCY PROCEDURES / PLAN Ability to prioritize and interpret the significance of each annunciator or alarm (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295024EA1.16) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Containment/drywell vacuum breakers</t>
-  </si>
-  <si>
-    <t>(700000AA2.11) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Grid frequency and voltage</t>
-  </si>
-  <si>
-    <t>(295037EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Boron effects on reactor power</t>
-  </si>
-  <si>
-    <t>(295006AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Reactor water level setpoint setdown</t>
-  </si>
-  <si>
-    <t>(295038EK2.01) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Radwaste system</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295004AA1.03) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295005AA2.09) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Turbine limitations</t>
-  </si>
-  <si>
-    <t>(295016AA2.02) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295025EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Safety/relief valve operation</t>
-  </si>
-  <si>
-    <t>(600000AK2.09) Knowledge of the relationship between the (APE 24) PLANT FIRE ON SITE and the following systems or components: (CFR: 41.7 / 45.7) Installed fire suppression systems</t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295026EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) Suppression pool temperature monitoring system</t>
-  </si>
-  <si>
-    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
-  </si>
-  <si>
-    <t>(295018AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.5 / 45.6) Placing the standby heat exchanger in service</t>
-  </si>
-  <si>
-    <t>(295032EK2.01) Knowledge of the relationship between the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Area/room coolers</t>
-  </si>
-  <si>
-    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295022AA1.02) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) RPS</t>
-  </si>
-  <si>
-    <t>(295008AA2.03) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water cleanup blowdown flow</t>
-  </si>
-  <si>
-    <t>(295011AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295033EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Operating ventilation systems</t>
-  </si>
-  <si>
-    <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
-  </si>
-  <si>
-    <t>(215003K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor manual control</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.25) EMERGENCY PROCEDURES / PLAN Knowledge of fire protection procedures (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Battery charger and battery</t>
-  </si>
-  <si>
-    <t>(217000A3.07) Ability to monitor automatic operation of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) including: (CFR: 41.7 / 45.7) Trips and isolations</t>
-  </si>
-  <si>
-    <t>(215005K4.01) Knowledge of (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR design features and/or interlocks that provide for the following: (CFR: 41.7) Rod withdrawal blocks</t>
-  </si>
-  <si>
-    <t>(215004K2.01) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) SRMS channels/detectors</t>
-  </si>
-  <si>
-    <t>(212000A2.12) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Main turbine stop/control valve closure</t>
-  </si>
-  <si>
-    <t>(203000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) including: (CFR: 41.5 / 45.5) System flow</t>
-  </si>
-  <si>
-    <t>(262001K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 AC) AC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Uninterruptible power supply (switchyard UPS)</t>
-  </si>
-  <si>
-    <t>(205000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Component cooling water systems</t>
-  </si>
-  <si>
-    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
-  </si>
-  <si>
-    <t>(261000K3.05) Knowledge of the effect that a loss or malfunction of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Secondary containment radiation/ contamination levels</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291002K1.09) SENSORS AND DETECTORS (CFR: 41.7) (LEVEL) Modes of failure</t>
-  </si>
-  <si>
-    <t>(209001K5.02) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Abnormal differential pressure indication (leak detection)</t>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
+  </si>
+  <si>
+    <t>(295021AA1.04) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Alternate decay heat removal systems</t>
+  </si>
+  <si>
+    <t>(295006AK2.03) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) CRD hydraulic system</t>
+  </si>
+  <si>
+    <t>(295026EK3.01) Knowledge of the reasons for the following responses or actions as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.5 / 45.6) Emergency/normal depressurization</t>
+  </si>
+  <si>
+    <t>(295038EK1.06) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Filtered vs. nonfiltered release</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295004AA2.03) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) Battery parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(600000AA1.09) Ability to operate and/or monitor the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.7 / 45.5 / 45.6) Plant fire zone panel (including detector location) </t>
+  </si>
+  <si>
+    <t>(295030EK2.08) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Systems required to depressurize the reactor</t>
+  </si>
+  <si>
+    <t>(295024EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.5 / 45.6) Suppression pool spray</t>
+  </si>
+  <si>
+    <t>(295037EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.8 to 41.10) Reactor pressure effects on reactor power</t>
+  </si>
+  <si>
+    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.1) CONDUCT OF OPERATIONS Knowledge of conduct of operations requirements (CFR: 41.10 / 43.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295001AA2.13) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Thermal limits</t>
+  </si>
+  <si>
+    <t>(700000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295025EK2.13) Knowledge of the relationship between the (EPE 2) HIGH REACTOR PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Reactor water cleanup system</t>
+  </si>
+  <si>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295023AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Shutdown margin</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.47) EMERGENCY PROCEDURES / PLAN Ability to diagnose and recognize trends in an accurate and timely manner using the appropriate control room reference material (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295005AA2.07) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295035EK2.04) Knowledge of the relationship between the (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) Blow-out panels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295017AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) Plant ventilation </t>
+  </si>
+  <si>
+    <t>(295032EK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Impact of operating environment on components</t>
+  </si>
+  <si>
+    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295010AA2.07) Ability to determine and/or interpret the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Drywell/containment or suppression chamber differential</t>
+  </si>
+  <si>
+    <t>(295022AA1.05) Ability to operate and/or monitor the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.7 / 45.6) NBI</t>
+  </si>
+  <si>
+    <t>(209001A4.05) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Manual initiation controls</t>
+  </si>
+  <si>
+    <t>(209002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Indications of pump cavitation</t>
+  </si>
+  <si>
+    <t>(205000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(263000K2.03) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Battery chargers</t>
+  </si>
+  <si>
+    <t>(510000K4.04) Knowledge of (SF4 SWS*) SERVICE WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Low/high temperature operation</t>
+  </si>
+  <si>
+    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(262001K3.03) Knowledge of the effect that a loss or malfunction of the (SF6 AC) AC ELECTRICAL DISTRIBUTION will have on the following systems or system parameters: (CFR: 41.7 / 45.4) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(212000A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 RPS) REACTOR PROTECTION SYSTEM including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF3 SRV) SAFETY RELIEF VALVES and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Drywell instrument air/drywell pneumatics</t>
+  </si>
+  <si>
+    <t>(262002A2.03) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Frequency malfunctions in the system</t>
+  </si>
+  <si>
+    <t>(264000A4.04) Ability to manually operate and/or monitor the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) in the control room: (CFR: 41.7 / 45.5 to 45.8) Starting, loading, unloading, and stopping of emergency generator</t>
+  </si>
+  <si>
+    <t>(259002K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM: (CFR: 41.5 / 45.3) Water level measurement</t>
+  </si>
+  <si>
+    <t>(217000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Reactor water level</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
+  </si>
+  <si>
+    <t>(400000K4.09) Knowledge of (SF8 CCS) COMPONENT COOLING WATER SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Operation from the remote shutdown panel</t>
   </si>
   <si>
     <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
   </si>
   <si>
-    <t>(223002K4.05) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Single failures will not impair the function ability of the system</t>
-  </si>
-  <si>
-    <t>(239002K2.01) (SF3 SRV) SAFETY RELIEF VALVES Knowledge of electrical power supplies to the following: (CFR: 41.7) SRV solenoids</t>
-  </si>
-  <si>
-    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
-  </si>
-  <si>
-    <t>(264000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Emergency generator room temperature</t>
-  </si>
-  <si>
-    <t>(209002K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Primary containment</t>
-  </si>
-  <si>
-    <t>(218000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.7 / 45.7) Low-pressure core spray pump running permissive</t>
-  </si>
-  <si>
-    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
-  </si>
-  <si>
-    <t>(215003K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
-  </si>
-  <si>
-    <t>(400000) (SF8 CCS) COMPONENT COOLING WATER SYSTEM  (G2.4.34) EMERGENCY PROCEDURES / PLAN Knowledge of RO responsibilities outside the main control room during an emergency (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Ground detection</t>
-  </si>
-  <si>
-    <t>(202001K1.18) Knowledge of the physical connections and/or cause and effect relationships between the (SF1, SF4 RS) RECIRCULATION SYSTEM and the following systems: (CFR: 41.2 to 41.8 / 45.7 / 45.8) Shutdown cooling system (RHR shutdown cooling mode)</t>
-  </si>
-  <si>
-    <t>(241000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.7 / 45.7) AC electrical power</t>
-  </si>
-  <si>
-    <t>(215001A4.06) Ability to manually operate and/or monitor the (SF7 TIP) TRAVERSING IN CORE PROBE in the control room: (CFR: 41.7 / 45.5 to 45.8) Drive mechanism operation</t>
-  </si>
-  <si>
-    <t>(286000K3.13) Knowledge of the effect that a loss or malfunction of the (SF8 FPS) FIRE PROTECTION SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Emergency core cooling systems</t>
-  </si>
-  <si>
-    <t>(230000) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE (291003K1.05) CONTROLLERS AND POSITIONERS (CFR: 41.7) Function and characteristics of valve positioners</t>
-  </si>
-  <si>
-    <t>(201005K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6): (CFR: 41.5 to 41.7 / 45.3 / 45.5) Target rod pattern</t>
-  </si>
-  <si>
-    <t>(201003K4.05) Knowledge of (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM design features and/or interlocks that provide for the following: (CFR: 41.1-7 / 41.10 / 45.1-6) Rod position indication</t>
-  </si>
-  <si>
-    <t>(202002K4.08) Knowledge of (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Recirculation loop flow control</t>
-  </si>
-  <si>
-    <t>(234000K3.05) Knowledge of the effect that a loss or malfunction of the (SF8 FH) FUEL HANDLING will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool level</t>
-  </si>
-  <si>
-    <t>(201001A2.10) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Low HCU accumulator pressure or high-level</t>
+    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(261000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) Primary containment pressure</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (291002K1.11) SENSORS AND DETECTORS (CFR: 41.7) (PRESSURE) Effects of operating environment (pressure, temperature, or radiation)</t>
+  </si>
+  <si>
+    <t>(300000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF8 IA) INSTRUMENT AIR SYSTEM and the following systems: (CFR: 41.4 / 41.5 / 41.7 to 41.9 / 45.6 / 45.8) Drywell pneumatic system</t>
+  </si>
+  <si>
+    <t>(215003A2.04) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
+  </si>
+  <si>
+    <t>(209001A4.07) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill pump</t>
+  </si>
+  <si>
+    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(205000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.7 / 45.7) Recirculation system</t>
+  </si>
+  <si>
+    <t>(263000K2.01) (SF6 DC) DC ELECTRICAL DISTRIBUTION Knowledge of electrical power supplies to the following: (CFR: 41.7) Operationally significant DC loads</t>
+  </si>
+  <si>
+    <t>(259001K1.02) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 FWS) FEEDWATER SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) HPCI</t>
+  </si>
+  <si>
+    <t>(202001A2.30) Ability to (a) predict the impacts of the following on the (SF1, SF4 RS) RECIRCULATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) VFD cooling system failure</t>
+  </si>
+  <si>
+    <t>(230000A4.04) Ability to manually operate and/or monitor the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE in the control room: (CFR: 41.7 / 45.5 to 45.8) Minimum flow valves</t>
+  </si>
+  <si>
+    <t>(290001K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 SC) SECONDARY CONTAINMENT: (CFR: 41.5 / 45.3) Building delta pressure control</t>
+  </si>
+  <si>
+    <t>(256000K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.7 / 45.7) Component cooling water systems</t>
+  </si>
+  <si>
+    <t>(201003A2.10) Ability to (a) predict the impacts of the following on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1-6 / 45.1-6) Excessive SCRAM time</t>
+  </si>
+  <si>
+    <t>(234000K4.09) Knowledge of (SF8 FH) FUEL HANDLING design features and/or interlocks that provide for the following: (CFR: 41.7) Determining refueling machine position, speed, or direction</t>
+  </si>
+  <si>
+    <t>(223001A3.02) Ability to monitor automatic operation of the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES including: (CFR: 41.7 / 45.7) Vacuum breaker/relief valve operation</t>
+  </si>
+  <si>
+    <t>(201001K3.03) Knowledge of the effect that a loss or malfunction of the (SF1 CRDH) CRD HYDRAULIC SYSTEM will have on the following systems or system parameters: (CFR: 41.5-7 / 45.1-3 / 45.5-6 / 45.8 / 45.10 / 45.12) Control rod drive mechanisms</t>
   </si>
   <si>
     <t>(233000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP including: (CFR: 41.5 / 45.5) Fuel pool level</t>
   </si>
   <si>
-    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+    <t>(272000) (SF7, SF9 RMS) RADIATION MONITORING SYSTEM  (G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
   </si>
   <si>
     <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
   </si>
   <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
   </si>
   <si>
     <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(292002K1.14) NEUTRON LIFE CYCLE (CFR: 41.1) Evaluate change in shutdown margin due to changes in plant parameters</t>
+    <t>(292005K1.11) CONTROL RODS (CFR: 41.1) Define deep rods and shallow rods</t>
   </si>
   <si>
     <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
   </si>
   <si>
-    <t>(292008K1.29) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Define decay heat</t>
-  </si>
-  <si>
-    <t>(293008K1.30) THERMAL HYDRAULICS (CFR: 41.14) (CORE ORIFICING) Compare the flow resistance through high‑powered bundles to that of low-powered bundles</t>
-  </si>
-  <si>
-    <t>(293009K1.35) CORE THERMAL LIMITS (CFR: 41.14) (PELLET-CLAD INTERACTION) Describe the effects of iodine and cadmium on pellet-clad interaction</t>
-  </si>
-  <si>
-    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
+    <t>(292008K1.27) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (NORMAL REACTOR SHUTDOWN) Explain reactor power response to a control rod insertion</t>
+  </si>
+  <si>
+    <t>(293009K1.23) CORE THERMAL LIMITS (CFR: 41.14) (MCPR) Describe the effects of mass flow on critical power</t>
+  </si>
+  <si>
+    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(293007K1.09) HEAT TRANSFER (CFR: 41.14) (CONDENSER APPLICATIONS OF HEAT TRANSFER) Discuss operational implications of condensate </t>
   </si>
   <si>
     <t>(295031EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Adequate core cooling</t>
   </si>
   <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295027EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.1.19) CONDUCT OF OPERATIONS Ability to use available indications to evaluate system or component status (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
-  </si>
-  <si>
-    <t>(295024) (EPE 1) HIGH DRYWELL PRESSURE (G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
-  </si>
-  <si>
-    <t>(295014AA2.03) Ability to determine and/or interpret the following as they apply to (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.10 / 43.5 / 45.13) Cause of reactivity addition</t>
-  </si>
-  <si>
-    <t>(295009) (APE 9) LOW REACTOR WATER LEVEL (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(295029EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(217000A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Valve openings due to malfunction(s)</t>
-  </si>
-  <si>
-    <t>(215005) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR (G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
-  </si>
-  <si>
-    <t>(215004A2.01) Ability to (a) predict the impacts of the following on the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Degraded power supply</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(203000A2.06) Ability to (a) predict the impacts of the following on the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Emergency generator failure</t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(290001A2.04) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High airborne radiation</t>
-  </si>
-  <si>
-    <t>(290002) (SF4 RVI) REACTOR VESSEL INTERNALS (G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.21) EMERGENCY PROCEDURES / PLAN Knowledge of the parameters and logic used to assess the status of emergency operating procedures critical safety functions or shutdown critical safety functions (CFR: 41.7 / 43.5 / 45.12)</t>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.4.38) EMERGENCY PROCEDURES / PLAN Ability to take actions required by the facility emergency plan implementing procedures, including supporting or acting as emergency coordinator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295021AA2.06) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295006) (APE 6) SCRAM (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(295018AA2.06) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Surge tank level</t>
+  </si>
+  <si>
+    <t>(295034EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.10 / 43.5 / 45.13) Source of high radiation levels</t>
+  </si>
+  <si>
+    <t>(295011) (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(295008AA2.02) Ability to determine and/or interpret the following as they apply to (APE 8) HIGH REACTOR WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Steam flow/feedflow mismatch</t>
+  </si>
+  <si>
+    <t>(510000A2.04) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pipe leakage/rupture</t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(262001A2.02) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of coolant accident</t>
+  </si>
+  <si>
+    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(215005A2.02) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Upscale or downscale trips</t>
+  </si>
+  <si>
+    <t>(241000) (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(271000A2.06) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Offgas system holdup volume explosion/ fire</t>
+  </si>
+  <si>
+    <t>(202002) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.39) CONDUCT OF OPERATIONS Knowledge of conservative decision-making practices (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(G2.2.7) EQUIPMENT CONTROL Knowledge of the process for conducting infrequently performed tests or evolutions (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
     <t>K5</t>
   </si>
   <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K4</t>
+  </si>
+  <si>
     <t>A3</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -388,214 +388,214 @@
     <t>295031</t>
   </si>
   <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
     <t>295003</t>
   </si>
   <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
     <t>295005</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>295018</t>
+    <t>295035</t>
+  </si>
+  <si>
+    <t>295017</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295013</t>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295010</t>
   </si>
   <si>
     <t>295022</t>
   </si>
   <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>223001</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>233000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293007</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>295011</t>
+  </si>
+  <si>
     <t>295008</t>
   </si>
   <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295033</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
     <t>241000</t>
   </si>
   <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>286000</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>201003</t>
+    <t>271000</t>
   </si>
   <si>
     <t>202002</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292007</t>
-  </si>
-  <si>
-    <t>292008</t>
-  </si>
-  <si>
-    <t>293008</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295014</t>
-  </si>
-  <si>
-    <t>295009</t>
-  </si>
-  <si>
-    <t>295029</t>
-  </si>
-  <si>
-    <t>288000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>290002</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.7</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.5</v>
+        <v>4.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.4</v>
+        <v>4.4</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D37" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,7 +1800,7 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
         <v>111</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.2</v>
+        <v>3.4</v>
       </c>
       <c r="D52" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="D58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.7</v>
+        <v>2.7</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.9</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2262,7 +2262,7 @@
         <v>4.7</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.9</v>
+        <v>4.4</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>2.9</v>
+        <v>4.6</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2500,7 +2500,7 @@
         <v>3.9</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D92" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>2.9</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
